--- a/data/futureloan_api_test.xlsx
+++ b/data/futureloan_api_test.xlsx
@@ -2020,8 +2020,8 @@
     <col min="5" max="5" width="54.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="84.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="50.625" style="2" customWidth="1"/>
-    <col min="8" max="136" width="9" style="2" customWidth="1"/>
-    <col min="137" max="16384" width="9" style="2"/>
+    <col min="8" max="137" width="9" style="2" customWidth="1"/>
+    <col min="138" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2434,8 +2434,8 @@
     <col min="5" max="5" width="19.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="122" width="9" style="2" customWidth="1"/>
-    <col min="123" max="16384" width="9" style="2"/>
+    <col min="8" max="123" width="9" style="2" customWidth="1"/>
+    <col min="124" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2680,8 +2680,8 @@
     <col min="5" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="118" width="9" style="2" customWidth="1"/>
-    <col min="119" max="16384" width="9" style="2"/>
+    <col min="8" max="119" width="9" style="2" customWidth="1"/>
+    <col min="120" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2732,7 +2732,6 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -3286,8 +3285,8 @@
     <col min="5" max="5" width="41.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="113" width="9" style="2" customWidth="1"/>
-    <col min="114" max="16384" width="9" style="2"/>
+    <col min="8" max="114" width="9" style="2" customWidth="1"/>
+    <col min="115" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -3925,8 +3924,8 @@
     <col min="5" max="5" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.875" style="2" customWidth="1"/>
-    <col min="8" max="109" width="9" style="2" customWidth="1"/>
-    <col min="110" max="16384" width="9" style="2"/>
+    <col min="8" max="110" width="9" style="2" customWidth="1"/>
+    <col min="111" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -5083,8 +5082,8 @@
     <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="58.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="65.625" style="2" customWidth="1"/>
-    <col min="8" max="96" width="9" style="2" customWidth="1"/>
-    <col min="97" max="16384" width="9" style="2"/>
+    <col min="8" max="97" width="9" style="2" customWidth="1"/>
+    <col min="98" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -5812,7 +5811,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -5820,7 +5819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
@@ -5833,8 +5832,8 @@
     <col min="5" max="5" width="36.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="60" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="75" width="9" style="2" customWidth="1"/>
-    <col min="76" max="16384" width="9" style="2"/>
+    <col min="8" max="76" width="9" style="2" customWidth="1"/>
+    <col min="77" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">

--- a/data/futureloan_api_test.xlsx
+++ b/data/futureloan_api_test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="413">
   <si>
     <t>case_id</t>
   </si>
@@ -237,55 +237,55 @@
     <t>正常充值0.01元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":0.01}</t>
+    <t>{"member_id":"#tester_id#","amount":0.01}</t>
   </si>
   <si>
     <t>正常充值500000元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":500000}</t>
+    <t>{"member_id":"#tester_id#","amount":500000}</t>
   </si>
   <si>
     <t>正常充值499999.99元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":499999.99}</t>
+    <t>{"member_id":"#tester_id#","amount":499999.99}</t>
   </si>
   <si>
     <t>正常充值0.1元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":0.1}</t>
+    <t>{"member_id":"#tester_id#","amount":0.1}</t>
   </si>
   <si>
     <t>正常充值1元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":1}</t>
+    <t>{"member_id":"#tester_id#","amount":1}</t>
   </si>
   <si>
     <t>正常充值499999.9元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":499999.9}</t>
+    <t>{"member_id":"#tester_id#","amount":499999.9}</t>
   </si>
   <si>
     <t>正常充值500000.0元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":500000.0}</t>
+    <t>{"member_id":"#tester_id#","amount":500000.0}</t>
   </si>
   <si>
     <t>正常充值500000.00元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":500000.00}</t>
+    <t>{"member_id":"#tester_id#","amount":500000.00}</t>
   </si>
   <si>
     <t>异常充值-0.1元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":-0.1}</t>
+    <t>{"member_id":"#tester_id#","amount":-0.1}</t>
   </si>
   <si>
     <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000","data":None}</t>
@@ -294,31 +294,31 @@
     <t>异常充值-0.01元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":-0.01}</t>
+    <t>{"member_id":"#tester_id#","amount":-0.01}</t>
   </si>
   <si>
     <t>异常充值500001元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":500001}</t>
+    <t>{"member_id":"#tester_id#","amount":500001}</t>
   </si>
   <si>
     <t>异常充值500000.1元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":500000.1}</t>
+    <t>{"member_id":"#tester_id#","amount":500000.1}</t>
   </si>
   <si>
     <t>异常充值500000.01元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":500000.01}</t>
+    <t>{"member_id":"#tester_id#","amount":500000.01}</t>
   </si>
   <si>
     <t>异常充值10%元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":"10%"}</t>
+    <t>{"member_id":"#tester_id#","amount":"10%"}</t>
   </si>
   <si>
     <t>{"code":2,"msg":"数字格式化异常","data":None}</t>
@@ -327,7 +327,7 @@
     <t>异常充值%10元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":"%10"}</t>
+    <t>{"member_id":"#tester_id#","amount":"%10"}</t>
   </si>
   <si>
     <t>{"code":2,"msg":"余额必须为数值型","data":None}</t>
@@ -336,7 +336,7 @@
     <t>充值金额为空</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":""}</t>
+    <t>{"member_id":"#tester_id#","amount":""}</t>
   </si>
   <si>
     <t>{"code":1,"msg":"余额为空","data":None}</t>
@@ -345,7 +345,7 @@
     <t>异常充值0.001元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":0.001}</t>
+    <t>{"member_id":"#tester_id#","amount":0.001}</t>
   </si>
   <si>
     <t>{"code":2,"msg":"余额小数超过两位","data":None}</t>
@@ -354,7 +354,7 @@
     <t>异常充值499999.999元</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":499999.999}</t>
+    <t>{"member_id":"#tester_id#","amount":499999.999}</t>
   </si>
   <si>
     <t>*会员id非数字*</t>
@@ -384,7 +384,7 @@
     <t>非本会员提现</t>
   </si>
   <si>
-    <t>{"member_id":1027,"amount":0.01}</t>
+    <t>{"member_id":11,"amount":0.01}</t>
   </si>
   <si>
     <t>不带token提现</t>
@@ -471,7 +471,7 @@
     <t>$提现金额为空$</t>
   </si>
   <si>
-    <t>{"member_id":1026,"amount":None}</t>
+    <t>{"member_id":"#tester_id#","amount":None}</t>
   </si>
   <si>
     <t>$异常提现-0.1元$</t>
@@ -501,7 +501,7 @@
 竞标10天*&amp;</t>
   </si>
   <si>
-    <t>{"member_id":2074456,
+    <t>{"member_id":"#administrator_id#",
 "title":"abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWX",
 "amount":100,"loan_rate":24,
 "loan_term":36,"loan_date_type":1,"bidding_days":10}</t>
@@ -518,7 +518,7 @@
 竞标1天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVW",
 "amount":200,"loan_rate":24.0,
 "loan_term":45,"loan_date_type":2,"bidding_days":1}</t>
@@ -531,7 +531,7 @@
 竞标9天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":23.9,
 "loan_term":1,"loan_date_type":1,"bidding_days":9}</t>
@@ -544,7 +544,7 @@
 竞标2天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"ab",
 "amount":100,"loan_rate":23,
 "loan_term":10,"loan_date_type":2,"bidding_days":2}</t>
@@ -555,7 +555,7 @@
 借款期限为35个月</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":0.1,
 "loan_term":35,"loan_date_type":1,"bidding_days":3}</t>
@@ -566,7 +566,7 @@
 借款期限为2个月</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":0.2,
 "loan_term":2,"loan_date_type":1,"bidding_days":3}</t>
@@ -577,7 +577,7 @@
 借款期限为44天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":1,
 "loan_term":44,"loan_date_type":2,"bidding_days":3}</t>
@@ -588,9 +588,9 @@
 借款期限11天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
-"amount":100,"loan_rate":12,
+"amount":100,"loan_rate":"#tester_id#",
 "loan_term":11,"loan_date_type":2,"bidding_days":3}</t>
   </si>
   <si>
@@ -608,7 +608,7 @@
 为非本帐户加标</t>
   </si>
   <si>
-    <t>{"member_id":1027,
+    <t>{"member_id":11,
 "title":"a",
 "amount":10000,"loan_rate":24,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -628,7 +628,7 @@
 标题为空</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":None,
 "amount":10000,"loan_rate":24,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -641,7 +641,7 @@
 借款额非100正整数倍为101元</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":101,"loan_rate":24,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -654,7 +654,7 @@
 借款额非100正整数倍为99元</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":99,"loan_rate":24,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -664,7 +664,7 @@
 借款额为0元</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":0,"loan_rate":24,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -674,7 +674,7 @@
 借款额为负为-100元</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":-100,"loan_rate":24,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -684,7 +684,7 @@
 借款额为空</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":None,"loan_rate":24,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -697,7 +697,7 @@
 利率超范围为24.1%</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24.1,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -710,7 +710,7 @@
 利率超范围为25%</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":25,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -720,7 +720,7 @@
 利率为0%</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":0,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -730,7 +730,7 @@
 利率为0.0%</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":0.0,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -740,7 +740,7 @@
 利率为空</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":None,
 "loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
@@ -753,7 +753,7 @@
 借款期限超范围为37个月</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":37,"loan_date_type":1,"bidding_days":10}</t>
@@ -768,7 +768,7 @@
 借款期限为0个月</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":0,"loan_date_type":1,"bidding_days":10}</t>
@@ -778,7 +778,7 @@
 借款期限为负为-1个月</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":-1,"loan_date_type":1,"bidding_days":10}</t>
@@ -788,7 +788,7 @@
 借款期限为负为-36个月</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":-36,"loan_date_type":1,"bidding_days":10}</t>
@@ -798,7 +798,7 @@
 借款期限为负为-37个月</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":-37,"loan_date_type":1,"bidding_days":10}</t>
@@ -808,7 +808,7 @@
 借款期限超范围为46天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":46,"loan_date_type":2,"bidding_days":10}</t>
@@ -823,7 +823,7 @@
 借款期限超范围为9天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":9,"loan_date_type":2,"bidding_days":10}</t>
@@ -833,7 +833,7 @@
 借款期限为负为-10天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":-10,"loan_date_type":2,"bidding_days":10}</t>
@@ -843,7 +843,7 @@
 借款期限为负为-45天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":-45,"loan_date_type":2,"bidding_days":10}</t>
@@ -853,7 +853,7 @@
 借款期限为负为-9天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":-9,"loan_date_type":2,"bidding_days":10}</t>
@@ -863,7 +863,7 @@
 借款期限为负为-46天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":-46,"loan_date_type":2,"bidding_days":10}</t>
@@ -873,7 +873,7 @@
 借款期限为空</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
 "loan_term":None,"loan_date_type":1,"bidding_days":10}</t>
@@ -886,10 +886,10 @@
 借款期限类型错误为0</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":0,"bidding_days":10}</t>
+"loan_term":"#tester_id#","loan_date_type":0,"bidding_days":10}</t>
   </si>
   <si>
     <t>{"code":2,"msg":"借款类型不存在","data":None}</t>
@@ -899,40 +899,40 @@
 借款期限类型错误为3</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":3,"bidding_days":10}</t>
+"loan_term":"#tester_id#","loan_date_type":3,"bidding_days":10}</t>
   </si>
   <si>
     <t>异常加标
 借款期限类型为负为-1</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":-1,"bidding_days":10}</t>
+"loan_term":"#tester_id#","loan_date_type":-1,"bidding_days":10}</t>
   </si>
   <si>
     <t>异常加标
 借款期限类型为负为-2</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":-2,"bidding_days":10}</t>
+"loan_term":"#tester_id#","loan_date_type":-2,"bidding_days":10}</t>
   </si>
   <si>
     <t>异常加标
 借款期限类型为空</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":None,"bidding_days":10}</t>
+"loan_term":"#tester_id#","loan_date_type":None,"bidding_days":10}</t>
   </si>
   <si>
     <t>{"code":1,"msg":"借款日期类型为空","data":None}</t>
@@ -942,10 +942,10 @@
 竞标天数超范围为11天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":1,"bidding_days":11}</t>
+"loan_term":"#tester_id#","loan_date_type":1,"bidding_days":11}</t>
   </si>
   <si>
     <t>{"code":2,"msg":"竞标期限为1-10天","data":None}</t>
@@ -955,50 +955,50 @@
 竞标天数为0天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":1,"bidding_days":0}</t>
+"loan_term":"#tester_id#","loan_date_type":1,"bidding_days":0}</t>
   </si>
   <si>
     <t>异常加标
 竞标天数为负为-1天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":1,"bidding_days":-1}</t>
+"loan_term":"#tester_id#","loan_date_type":1,"bidding_days":-1}</t>
   </si>
   <si>
     <t>异常加标
 竞标天数为负为-10天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":1,"bidding_days":-10}</t>
+"loan_term":"#tester_id#","loan_date_type":1,"bidding_days":-10}</t>
   </si>
   <si>
     <t>异常加标
 竞标天数为负为-11天</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":1,"bidding_days":-11}</t>
+"loan_term":"#tester_id#","loan_date_type":1,"bidding_days":-11}</t>
   </si>
   <si>
     <t>异常加标
 竞标天数为空</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":1,"bidding_days":None}</t>
+"loan_term":"#tester_id#","loan_date_type":1,"bidding_days":None}</t>
   </si>
   <si>
     <t>{"code":1,"msg":"竞标期限为空","data":None}</t>
@@ -1007,10 +1007,10 @@
     <t>不带token加标</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "title":"a",
 "amount":100,"loan_rate":24,
-"loan_term":12,"loan_date_type":1,"bidding_days":3}</t>
+"loan_term":"#tester_id#","loan_date_type":1,"bidding_days":3}</t>
   </si>
   <si>
     <t>/loan/audit</t>
@@ -1243,7 +1243,7 @@
 标剩余金额≥100元</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":100}</t>
   </si>
@@ -1254,7 +1254,7 @@
 标剩余金额≥200元</t>
   </si>
   <si>
-    <t>{"member_id":1026,
+    <t>{"member_id":"#tester_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":200}</t>
   </si>
@@ -1264,7 +1264,7 @@
 标剩余金额≥100元</t>
   </si>
   <si>
-    <t>{"member_id":2074456,
+    <t>{"member_id":"#aministrator_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":100}</t>
   </si>
@@ -1273,7 +1273,7 @@
 投资帐户余额≥投资金额＞标剩余金额</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":50000}</t>
   </si>
@@ -1288,7 +1288,7 @@
 99元</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":99}</t>
   </si>
@@ -1303,7 +1303,7 @@
 101元</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":101}</t>
   </si>
@@ -1313,7 +1313,7 @@
 -100元</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":-100}</t>
   </si>
@@ -1323,7 +1323,7 @@
 -200元</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":-200}</t>
   </si>
@@ -1332,7 +1332,7 @@
 0元</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":0}</t>
   </si>
@@ -1341,7 +1341,7 @@
 为空</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":None}</t>
   </si>
@@ -1356,7 +1356,7 @@
 为布尔值真</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":True}</t>
   </si>
@@ -1371,7 +1371,7 @@
 为布尔值假</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":False}</t>
   </si>
@@ -1381,7 +1381,7 @@
 为含字母字符串</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":"10a"}</t>
   </si>
@@ -1391,7 +1391,7 @@
 为含特殊字符字符串</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":"10#"}</t>
   </si>
@@ -1401,7 +1401,7 @@
 为空字符串</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":""}</t>
   </si>
@@ -1411,11 +1411,6 @@
 为浮点型</t>
   </si>
   <si>
-    <t>{"member_id":2075791.0,
-"loan_id":"#loan_id_status_2#",
-"amount":100}</t>
-  </si>
-  <si>
     <t>用户id异常
 类型异常
 为布尔值真</t>
@@ -1507,7 +1502,7 @@
 为浮点型</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":1.5,
 "amount":100}</t>
   </si>
@@ -1517,7 +1512,7 @@
 为布尔值真</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":True,
 "amount":100}</t>
   </si>
@@ -1527,7 +1522,7 @@
 为布尔值假</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":False,
 "amount":100}</t>
   </si>
@@ -1537,7 +1532,7 @@
 为含字母字符串</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"a",
 "amount":100}</t>
   </si>
@@ -1547,7 +1542,7 @@
 为含特殊字符字符串</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#",
 "amount":100}</t>
   </si>
@@ -1557,7 +1552,7 @@
 为空字符串</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"",
 "amount":100}</t>
   </si>
@@ -1565,7 +1560,7 @@
     <t>标id为空</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":None,
 "amount":200}</t>
   </si>
@@ -1578,7 +1573,7 @@
     <t>标id不存在</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#not_exist_loan_id#",
 "amount":100}</t>
   </si>
@@ -1591,7 +1586,7 @@
     <t>标id非竞标中为1</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_1#",
 "amount":200}</t>
   </si>
@@ -1604,7 +1599,7 @@
     <t>标id非竞标中为3</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_3#",
 "amount":100}</t>
   </si>
@@ -1612,7 +1607,7 @@
     <t>标id非竞标中为4</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_4#",
 "amount":200}</t>
   </si>
@@ -1620,7 +1615,7 @@
     <t>标id非竞标中为5</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_5#",
 "amount":100}</t>
   </si>
@@ -1628,7 +1623,7 @@
     <t>不带token投资</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":200}</t>
   </si>
@@ -1642,7 +1637,7 @@
 投资金额=标剩余金额49600元</t>
   </si>
   <si>
-    <t>{"member_id":2075791,
+    <t>{"member_id":"#investor_id#",
 "loan_id":"#loan_id_status_2#",
 "amount":49600}</t>
   </si>
@@ -2007,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H16"/>
     </sheetView>
   </sheetViews>
@@ -2020,8 +2015,8 @@
     <col min="5" max="5" width="54.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="84.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="50.625" style="2" customWidth="1"/>
-    <col min="8" max="137" width="9" style="2" customWidth="1"/>
-    <col min="138" max="16384" width="9" style="2"/>
+    <col min="8" max="148" width="9" style="2" customWidth="1"/>
+    <col min="149" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2072,7 +2067,6 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -2096,7 +2090,6 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -2120,7 +2113,6 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -2144,7 +2136,6 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -2168,7 +2159,6 @@
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -2192,7 +2182,6 @@
       <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -2216,7 +2205,6 @@
       <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -2240,7 +2228,6 @@
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -2264,7 +2251,6 @@
       <c r="G10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -2288,7 +2274,6 @@
       <c r="G11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -2312,7 +2297,6 @@
       <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -2336,7 +2320,6 @@
       <c r="G13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -2360,7 +2343,6 @@
       <c r="G14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -2384,7 +2366,6 @@
       <c r="G15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -2408,12 +2389,11 @@
       <c r="G16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2421,21 +2401,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="123" width="9" style="2" customWidth="1"/>
-    <col min="124" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="50.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="134" width="9" style="2" customWidth="1"/>
+    <col min="135" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2667,7 +2648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H24"/>
     </sheetView>
   </sheetViews>
@@ -2680,8 +2661,8 @@
     <col min="5" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="119" width="9" style="2" customWidth="1"/>
-    <col min="120" max="16384" width="9" style="2"/>
+    <col min="8" max="130" width="9" style="2" customWidth="1"/>
+    <col min="131" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2755,7 +2736,6 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -2779,7 +2759,6 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -2803,7 +2782,6 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -2827,7 +2805,6 @@
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -2851,7 +2828,6 @@
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -2875,7 +2851,6 @@
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -2899,7 +2874,6 @@
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -2923,7 +2897,6 @@
       <c r="G10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -2947,7 +2920,6 @@
       <c r="G11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -2971,7 +2943,6 @@
       <c r="G12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -2995,7 +2966,6 @@
       <c r="G13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -3019,7 +2989,6 @@
       <c r="G14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -3043,7 +3012,6 @@
       <c r="G15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -3067,9 +3035,8 @@
       <c r="G16" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3091,9 +3058,8 @@
       <c r="G17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3115,9 +3081,8 @@
       <c r="G18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3139,9 +3104,8 @@
       <c r="G19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3163,9 +3127,8 @@
       <c r="G20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3187,9 +3150,8 @@
       <c r="G21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3211,9 +3173,8 @@
       <c r="G22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3235,9 +3196,8 @@
       <c r="G23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3259,7 +3219,6 @@
       <c r="G24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3272,7 +3231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H25"/>
     </sheetView>
   </sheetViews>
@@ -3285,8 +3244,8 @@
     <col min="5" max="5" width="41.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="114" width="9" style="2" customWidth="1"/>
-    <col min="115" max="16384" width="9" style="2"/>
+    <col min="8" max="125" width="9" style="2" customWidth="1"/>
+    <col min="126" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -3337,7 +3296,6 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -3361,7 +3319,6 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -3385,7 +3342,6 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -3409,7 +3365,6 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -3433,7 +3388,6 @@
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -3457,7 +3411,6 @@
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -3481,7 +3434,6 @@
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -3505,7 +3457,6 @@
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -3529,7 +3480,6 @@
       <c r="G10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -3553,7 +3503,6 @@
       <c r="G11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -3577,7 +3526,6 @@
       <c r="G12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -3601,7 +3549,6 @@
       <c r="G13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -3625,7 +3572,6 @@
       <c r="G14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -3649,7 +3595,6 @@
       <c r="G15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -3673,9 +3618,8 @@
       <c r="G16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3697,9 +3641,8 @@
       <c r="G17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3721,9 +3664,8 @@
       <c r="G18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3745,9 +3687,8 @@
       <c r="G19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3769,9 +3710,8 @@
       <c r="G20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3793,9 +3733,8 @@
       <c r="G21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3817,9 +3756,8 @@
       <c r="G22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3841,9 +3779,8 @@
       <c r="G23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3865,9 +3802,8 @@
       <c r="G24" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3889,7 +3825,6 @@
       <c r="G25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3911,7 +3846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H47"/>
     </sheetView>
   </sheetViews>
@@ -3924,8 +3859,8 @@
     <col min="5" max="5" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.875" style="2" customWidth="1"/>
-    <col min="8" max="110" width="9" style="2" customWidth="1"/>
-    <col min="111" max="16384" width="9" style="2"/>
+    <col min="8" max="121" width="9" style="2" customWidth="1"/>
+    <col min="122" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -3976,7 +3911,6 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2"/>
     </row>
     <row r="3" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -4000,7 +3934,6 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3"/>
     </row>
     <row r="4" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -4024,7 +3957,6 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -4048,7 +3980,6 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -4072,7 +4003,6 @@
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6"/>
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -4096,7 +4026,6 @@
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -4120,7 +4049,6 @@
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8"/>
     </row>
     <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -4144,7 +4072,6 @@
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -4168,7 +4095,6 @@
       <c r="G10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H10"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -4192,7 +4118,6 @@
       <c r="G11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H11"/>
     </row>
     <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -4216,7 +4141,6 @@
       <c r="G12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H12"/>
     </row>
     <row r="13" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -4240,7 +4164,6 @@
       <c r="G13" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H13"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -4264,7 +4187,6 @@
       <c r="G14" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -4288,7 +4210,6 @@
       <c r="G15" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H15"/>
     </row>
     <row r="16" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -4312,9 +4233,8 @@
       <c r="G16" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4336,9 +4256,8 @@
       <c r="G17" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4360,9 +4279,8 @@
       <c r="G18" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4384,9 +4302,8 @@
       <c r="G19" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4408,9 +4325,8 @@
       <c r="G20" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4432,9 +4348,8 @@
       <c r="G21" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4456,9 +4371,8 @@
       <c r="G22" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4480,9 +4394,8 @@
       <c r="G23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4504,9 +4417,8 @@
       <c r="G24" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4528,9 +4440,8 @@
       <c r="G25" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4552,9 +4463,8 @@
       <c r="G26" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4576,9 +4486,8 @@
       <c r="G27" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4600,9 +4509,8 @@
       <c r="G28" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4624,9 +4532,8 @@
       <c r="G29" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4648,9 +4555,8 @@
       <c r="G30" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4672,9 +4578,8 @@
       <c r="G31" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4696,9 +4601,8 @@
       <c r="G32" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4720,9 +4624,8 @@
       <c r="G33" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4744,9 +4647,8 @@
       <c r="G34" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4768,9 +4670,8 @@
       <c r="G35" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4792,9 +4693,8 @@
       <c r="G36" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4816,9 +4716,8 @@
       <c r="G37" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4840,9 +4739,8 @@
       <c r="G38" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4864,9 +4762,8 @@
       <c r="G39" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4888,9 +4785,8 @@
       <c r="G40" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4912,9 +4808,8 @@
       <c r="G41" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4936,9 +4831,8 @@
       <c r="G42" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4960,9 +4854,8 @@
       <c r="G43" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4984,9 +4877,8 @@
       <c r="G44" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5008,9 +4900,8 @@
       <c r="G45" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5032,9 +4923,8 @@
       <c r="G46" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5056,7 +4946,6 @@
       <c r="G47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5082,8 +4971,8 @@
     <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="58.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="65.625" style="2" customWidth="1"/>
-    <col min="8" max="97" width="9" style="2" customWidth="1"/>
-    <col min="98" max="16384" width="9" style="2"/>
+    <col min="8" max="108" width="9" style="2" customWidth="1"/>
+    <col min="109" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -5819,7 +5708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
@@ -5832,8 +5721,8 @@
     <col min="5" max="5" width="36.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="60" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="76" width="9" style="2" customWidth="1"/>
-    <col min="77" max="16384" width="9" style="2"/>
+    <col min="8" max="87" width="9" style="2" customWidth="1"/>
+    <col min="88" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -6239,7 +6128,7 @@
         <v>362</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>353</v>
@@ -6260,10 +6149,10 @@
         <v>327</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>353</v>
@@ -6284,10 +6173,10 @@
         <v>327</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>353</v>
@@ -6308,10 +6197,10 @@
         <v>327</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>353</v>
@@ -6332,10 +6221,10 @@
         <v>327</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>353</v>
@@ -6356,10 +6245,10 @@
         <v>327</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>353</v>
@@ -6380,13 +6269,13 @@
         <v>327</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="H23"/>
     </row>
@@ -6404,13 +6293,13 @@
         <v>327</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="H24"/>
     </row>
@@ -6428,13 +6317,13 @@
         <v>327</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>331</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H25"/>
     </row>
@@ -6452,10 +6341,10 @@
         <v>327</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>353</v>
@@ -6476,10 +6365,10 @@
         <v>327</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>353</v>
@@ -6500,10 +6389,10 @@
         <v>327</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>353</v>
@@ -6524,10 +6413,10 @@
         <v>327</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>353</v>
@@ -6548,10 +6437,10 @@
         <v>327</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>353</v>
@@ -6572,10 +6461,10 @@
         <v>327</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>353</v>
@@ -6596,13 +6485,13 @@
         <v>327</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="H32"/>
     </row>
@@ -6620,13 +6509,13 @@
         <v>327</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="H33"/>
     </row>
@@ -6644,13 +6533,13 @@
         <v>327</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="H34"/>
     </row>
@@ -6668,13 +6557,13 @@
         <v>327</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="G35" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H35"/>
     </row>
@@ -6692,13 +6581,13 @@
         <v>327</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>406</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H36"/>
     </row>
@@ -6716,13 +6605,13 @@
         <v>327</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H37"/>
     </row>
@@ -6740,13 +6629,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="H38"/>
     </row>
@@ -6764,10 +6653,10 @@
         <v>327</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>13</v>

--- a/data/futureloan_api_test.xlsx
+++ b/data/futureloan_api_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -2002,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H16"/>
     </sheetView>
   </sheetViews>
@@ -2015,8 +2015,8 @@
     <col min="5" max="5" width="54.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="84.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="50.625" style="2" customWidth="1"/>
-    <col min="8" max="148" width="9" style="2" customWidth="1"/>
-    <col min="149" max="16384" width="9" style="2"/>
+    <col min="8" max="149" width="9" style="2" customWidth="1"/>
+    <col min="150" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2415,8 +2415,8 @@
     <col min="6" max="6" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="134" width="9" style="2" customWidth="1"/>
-    <col min="135" max="16384" width="9" style="2"/>
+    <col min="9" max="135" width="9" style="2" customWidth="1"/>
+    <col min="136" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2661,8 +2661,8 @@
     <col min="5" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="130" width="9" style="2" customWidth="1"/>
-    <col min="131" max="16384" width="9" style="2"/>
+    <col min="8" max="131" width="9" style="2" customWidth="1"/>
+    <col min="132" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -3244,8 +3244,8 @@
     <col min="5" max="5" width="41.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="125" width="9" style="2" customWidth="1"/>
-    <col min="126" max="16384" width="9" style="2"/>
+    <col min="8" max="126" width="9" style="2" customWidth="1"/>
+    <col min="127" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -3859,8 +3859,8 @@
     <col min="5" max="5" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.875" style="2" customWidth="1"/>
-    <col min="8" max="121" width="9" style="2" customWidth="1"/>
-    <col min="122" max="16384" width="9" style="2"/>
+    <col min="8" max="122" width="9" style="2" customWidth="1"/>
+    <col min="123" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -4971,8 +4971,8 @@
     <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="58.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="65.625" style="2" customWidth="1"/>
-    <col min="8" max="108" width="9" style="2" customWidth="1"/>
-    <col min="109" max="16384" width="9" style="2"/>
+    <col min="8" max="109" width="9" style="2" customWidth="1"/>
+    <col min="110" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -5023,7 +5023,6 @@
       <c r="G2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H2"/>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -5071,7 +5070,6 @@
       <c r="G4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H4"/>
     </row>
     <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -5095,7 +5093,6 @@
       <c r="G5" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -5119,7 +5116,6 @@
       <c r="G6" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H6"/>
     </row>
     <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -5143,7 +5139,6 @@
       <c r="G7" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -5167,7 +5162,6 @@
       <c r="G8" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H8"/>
     </row>
     <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -5191,7 +5185,6 @@
       <c r="G9" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -5215,7 +5208,6 @@
       <c r="G10" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H10"/>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -5239,7 +5231,6 @@
       <c r="G11" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H11"/>
     </row>
     <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -5263,7 +5254,6 @@
       <c r="G12" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H12"/>
     </row>
     <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -5287,7 +5277,6 @@
       <c r="G13" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H13"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -5311,7 +5300,6 @@
       <c r="G14" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -5335,7 +5323,6 @@
       <c r="G15" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H15"/>
     </row>
     <row r="16" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -5359,9 +5346,8 @@
       <c r="G16" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5383,9 +5369,8 @@
       <c r="G17" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5407,9 +5392,8 @@
       <c r="G18" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5431,9 +5415,8 @@
       <c r="G19" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5455,9 +5438,8 @@
       <c r="G20" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5479,9 +5461,8 @@
       <c r="G21" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5503,9 +5484,8 @@
       <c r="G22" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5527,9 +5507,8 @@
       <c r="G23" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5551,9 +5530,8 @@
       <c r="G24" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5575,9 +5553,8 @@
       <c r="G25" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5599,9 +5576,8 @@
       <c r="G26" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5623,9 +5599,8 @@
       <c r="G27" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5647,9 +5622,8 @@
       <c r="G28" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5671,9 +5645,8 @@
       <c r="G29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5695,7 +5668,6 @@
       <c r="G30" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="H30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5708,7 +5680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
@@ -5721,8 +5693,8 @@
     <col min="5" max="5" width="36.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="60" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="87" width="9" style="2" customWidth="1"/>
-    <col min="88" max="16384" width="9" style="2"/>
+    <col min="8" max="88" width="9" style="2" customWidth="1"/>
+    <col min="89" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -5773,7 +5745,6 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2"/>
     </row>
     <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -5797,7 +5768,6 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -5821,7 +5791,6 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4"/>
     </row>
     <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -5845,7 +5814,6 @@
       <c r="G5" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -5869,7 +5837,6 @@
       <c r="G6" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H6"/>
     </row>
     <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -5893,7 +5860,6 @@
       <c r="G7" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -5917,7 +5883,6 @@
       <c r="G8" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H8"/>
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -5941,7 +5906,6 @@
       <c r="G9" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -5965,7 +5929,6 @@
       <c r="G10" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H10"/>
     </row>
     <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -5989,7 +5952,6 @@
       <c r="G11" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="H11"/>
     </row>
     <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -6013,7 +5975,6 @@
       <c r="G12" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H12"/>
     </row>
     <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -6037,7 +5998,6 @@
       <c r="G13" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H13"/>
     </row>
     <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -6061,7 +6021,6 @@
       <c r="G14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -6085,7 +6044,6 @@
       <c r="G15" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H15"/>
     </row>
     <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -6109,9 +6067,8 @@
       <c r="G16" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6133,9 +6090,8 @@
       <c r="G17" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6157,9 +6113,8 @@
       <c r="G18" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6181,9 +6136,8 @@
       <c r="G19" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6205,9 +6159,8 @@
       <c r="G20" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6229,9 +6182,8 @@
       <c r="G21" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6253,9 +6205,8 @@
       <c r="G22" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6277,9 +6228,8 @@
       <c r="G23" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6301,9 +6251,8 @@
       <c r="G24" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6325,9 +6274,8 @@
       <c r="G25" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6349,9 +6297,8 @@
       <c r="G26" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6373,9 +6320,8 @@
       <c r="G27" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6397,9 +6343,8 @@
       <c r="G28" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6421,9 +6366,8 @@
       <c r="G29" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6445,9 +6389,8 @@
       <c r="G30" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6469,9 +6412,8 @@
       <c r="G31" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6493,9 +6435,8 @@
       <c r="G32" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6517,9 +6458,8 @@
       <c r="G33" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6541,9 +6481,8 @@
       <c r="G34" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -6565,9 +6504,8 @@
       <c r="G35" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6589,9 +6527,8 @@
       <c r="G36" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -6613,9 +6550,8 @@
       <c r="G37" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -6637,9 +6573,8 @@
       <c r="G38" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -6661,7 +6596,6 @@
       <c r="G39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/futureloan_api_test.xlsx
+++ b/data/futureloan_api_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
     <t>正常登录验证</t>
   </si>
   <si>
-    <t>{"mobile_phone":"18584086762","pwd":"yey1201abc"}</t>
+    <t>{"mobile_phone":"18581512456","pwd":"yey1201abc"}</t>
   </si>
   <si>
     <t>手机长度少1位</t>
@@ -2002,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H16"/>
     </sheetView>
   </sheetViews>
@@ -2015,8 +2015,8 @@
     <col min="5" max="5" width="54.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="84.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="50.625" style="2" customWidth="1"/>
-    <col min="8" max="149" width="9" style="2" customWidth="1"/>
-    <col min="150" max="16384" width="9" style="2"/>
+    <col min="8" max="151" width="9" style="2" customWidth="1"/>
+    <col min="152" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2393,7 +2393,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2401,7 +2401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
@@ -2415,8 +2415,8 @@
     <col min="6" max="6" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="135" width="9" style="2" customWidth="1"/>
-    <col min="136" max="16384" width="9" style="2"/>
+    <col min="9" max="137" width="9" style="2" customWidth="1"/>
+    <col min="138" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2661,8 +2661,8 @@
     <col min="5" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="131" width="9" style="2" customWidth="1"/>
-    <col min="132" max="16384" width="9" style="2"/>
+    <col min="8" max="133" width="9" style="2" customWidth="1"/>
+    <col min="134" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -3244,8 +3244,8 @@
     <col min="5" max="5" width="41.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="126" width="9" style="2" customWidth="1"/>
-    <col min="127" max="16384" width="9" style="2"/>
+    <col min="8" max="128" width="9" style="2" customWidth="1"/>
+    <col min="129" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -3859,8 +3859,8 @@
     <col min="5" max="5" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.875" style="2" customWidth="1"/>
-    <col min="8" max="122" width="9" style="2" customWidth="1"/>
-    <col min="123" max="16384" width="9" style="2"/>
+    <col min="8" max="124" width="9" style="2" customWidth="1"/>
+    <col min="125" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -4971,8 +4971,8 @@
     <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="58.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="65.625" style="2" customWidth="1"/>
-    <col min="8" max="109" width="9" style="2" customWidth="1"/>
-    <col min="110" max="16384" width="9" style="2"/>
+    <col min="8" max="111" width="9" style="2" customWidth="1"/>
+    <col min="112" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -5693,8 +5693,8 @@
     <col min="5" max="5" width="36.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="60" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="88" width="9" style="2" customWidth="1"/>
-    <col min="89" max="16384" width="9" style="2"/>
+    <col min="8" max="90" width="9" style="2" customWidth="1"/>
+    <col min="91" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
